--- a/Stability/wind_tunnel_test/wind_tunnel_test_matrix.xlsx
+++ b/Stability/wind_tunnel_test/wind_tunnel_test_matrix.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Stability/wind_tunnel_test/wind_tunnel_test_matrix.xlsx
+++ b/Stability/wind_tunnel_test/wind_tunnel_test_matrix.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>200</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
@@ -675,10 +675,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -692,10 +692,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
@@ -726,10 +726,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>200</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
         <v>0.1</v>
@@ -845,7 +845,7 @@
         <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
         <v>0.5</v>
@@ -862,10 +862,10 @@
         <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>0.1</v>
@@ -896,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
         <v>0.5</v>
@@ -913,10 +913,10 @@
         <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -924,13 +924,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
         <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E29" t="n">
         <v>0.1</v>
@@ -941,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
         <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E30" t="n">
         <v>0.5</v>
@@ -958,16 +958,16 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="n">
         <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -978,10 +978,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
         <v>0.1</v>
@@ -998,10 +998,10 @@
         <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -1015,10 +1015,10 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
@@ -1032,10 +1032,10 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1049,10 +1049,10 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -1066,10 +1066,10 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" t="n">
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" t="n">
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
@@ -1168,10 +1168,10 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44">
@@ -1185,10 +1185,10 @@
         <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
@@ -1202,10 +1202,10 @@
         <v>12</v>
       </c>
       <c r="D45" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1219,95 +1219,95 @@
         <v>12</v>
       </c>
       <c r="D46" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
         <v>12</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C48" t="n">
         <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C49" t="n">
         <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
         <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C51" t="n">
         <v>12</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1321,10 +1321,10 @@
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53">
@@ -1338,10 +1338,10 @@
         <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
@@ -1355,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1372,10 +1372,10 @@
         <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56">
@@ -1383,16 +1383,16 @@
         <v>3</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>3</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>12</v>
       </c>
       <c r="D57" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1417,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>12</v>
@@ -1426,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="59">
@@ -1434,16 +1434,16 @@
         <v>3</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>12</v>
       </c>
       <c r="D59" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
@@ -1451,16 +1451,16 @@
         <v>3</v>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1468,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>12</v>
@@ -1477,7 +1477,7 @@
         <v>100</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="62">
@@ -1485,16 +1485,16 @@
         <v>3</v>
       </c>
       <c r="B62" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
@@ -1502,16 +1502,16 @@
         <v>3</v>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1525,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="65">
@@ -1536,16 +1536,16 @@
         <v>3</v>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C65" t="n">
         <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66">
@@ -1553,16 +1553,16 @@
         <v>3</v>
       </c>
       <c r="B66" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C66" t="n">
         <v>12</v>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1570,16 +1570,16 @@
         <v>3</v>
       </c>
       <c r="B67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C67" t="n">
         <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="68">
@@ -1587,16 +1587,16 @@
         <v>3</v>
       </c>
       <c r="B68" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C68" t="n">
         <v>12</v>
       </c>
       <c r="D68" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69">
@@ -1604,16 +1604,16 @@
         <v>3</v>
       </c>
       <c r="B69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C69" t="n">
         <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1621,16 +1621,16 @@
         <v>3</v>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C70" t="n">
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="71">
@@ -1638,16 +1638,16 @@
         <v>3</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C71" t="n">
         <v>12</v>
       </c>
       <c r="D71" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72">
@@ -1655,16 +1655,16 @@
         <v>3</v>
       </c>
       <c r="B72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C72" t="n">
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1672,225 +1672,225 @@
         <v>3</v>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C73" t="n">
         <v>12</v>
       </c>
       <c r="D73" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
         <v>12</v>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C75" t="n">
         <v>12</v>
       </c>
       <c r="D75" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C76" t="n">
         <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
         <v>12</v>
       </c>
       <c r="D77" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
         <v>12</v>
       </c>
       <c r="D78" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
         <v>12</v>
       </c>
       <c r="D79" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C80" t="n">
         <v>12</v>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
         <v>12</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
         <v>12</v>
       </c>
       <c r="D82" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C83" t="n">
         <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
         <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
         <v>12</v>
       </c>
       <c r="D85" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" t="n">
         <v>8</v>
@@ -1899,15 +1899,15 @@
         <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B87" t="n">
         <v>8</v>
@@ -1916,10 +1916,10 @@
         <v>12</v>
       </c>
       <c r="D87" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1927,13 +1927,13 @@
         <v>4</v>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
         <v>0.3</v>
@@ -1944,13 +1944,13 @@
         <v>4</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
         <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
         <v>0.7</v>
@@ -1961,13 +1961,13 @@
         <v>4</v>
       </c>
       <c r="B90" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>12</v>
       </c>
       <c r="D90" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E90" t="n">
         <v>0.3</v>
@@ -1978,15 +1978,253 @@
         <v>4</v>
       </c>
       <c r="B91" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>12</v>
       </c>
       <c r="D91" t="n">
+        <v>50</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>12</v>
+      </c>
+      <c r="D92" t="n">
         <v>200</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E92" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>4</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>12</v>
+      </c>
+      <c r="D93" t="n">
+        <v>200</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4</v>
+      </c>
+      <c r="C94" t="n">
+        <v>12</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+      <c r="C95" t="n">
+        <v>12</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>12</v>
+      </c>
+      <c r="D96" t="n">
+        <v>50</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>12</v>
+      </c>
+      <c r="D97" t="n">
+        <v>50</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>4</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4</v>
+      </c>
+      <c r="C98" t="n">
+        <v>12</v>
+      </c>
+      <c r="D98" t="n">
+        <v>200</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4</v>
+      </c>
+      <c r="C99" t="n">
+        <v>12</v>
+      </c>
+      <c r="D99" t="n">
+        <v>200</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4</v>
+      </c>
+      <c r="B100" t="n">
+        <v>8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>12</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4</v>
+      </c>
+      <c r="B101" t="n">
+        <v>8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>12</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>4</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8</v>
+      </c>
+      <c r="C102" t="n">
+        <v>12</v>
+      </c>
+      <c r="D102" t="n">
+        <v>50</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4</v>
+      </c>
+      <c r="B103" t="n">
+        <v>8</v>
+      </c>
+      <c r="C103" t="n">
+        <v>12</v>
+      </c>
+      <c r="D103" t="n">
+        <v>50</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4</v>
+      </c>
+      <c r="B104" t="n">
+        <v>8</v>
+      </c>
+      <c r="C104" t="n">
+        <v>12</v>
+      </c>
+      <c r="D104" t="n">
+        <v>200</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4</v>
+      </c>
+      <c r="B105" t="n">
+        <v>8</v>
+      </c>
+      <c r="C105" t="n">
+        <v>12</v>
+      </c>
+      <c r="D105" t="n">
+        <v>200</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/Stability/wind_tunnel_test/wind_tunnel_test_matrix.xlsx
+++ b/Stability/wind_tunnel_test/wind_tunnel_test_matrix.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,13 +485,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>200</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>200</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -669,16 +669,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15">
@@ -686,16 +686,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>12</v>
@@ -712,7 +712,7 @@
         <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18">
@@ -737,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>12</v>
@@ -763,7 +763,7 @@
         <v>200</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -822,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>0.1</v>
@@ -839,13 +839,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>0.5</v>
@@ -856,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -873,13 +873,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E26" t="n">
         <v>0.1</v>
@@ -890,13 +890,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E27" t="n">
         <v>0.5</v>
@@ -907,13 +907,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -924,13 +924,13 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E29" t="n">
         <v>0.1</v>
@@ -941,13 +941,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
         <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E30" t="n">
         <v>0.5</v>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31" t="n">
         <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -975,13 +975,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E32" t="n">
         <v>0.1</v>
@@ -992,16 +992,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
         <v>12</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1026,16 +1026,16 @@
         <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C36" t="n">
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>1</v>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C37" t="n">
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40">
@@ -1111,16 +1111,16 @@
         <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>1</v>
       </c>
       <c r="B44" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>1</v>
       </c>
       <c r="B47" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C47" t="n">
         <v>12</v>
       </c>
       <c r="D47" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" t="n">
         <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C49" t="n">
         <v>12</v>
       </c>
       <c r="D49" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C50" t="n">
         <v>12</v>
       </c>
       <c r="D50" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51">
@@ -1298,933 +1298,2531 @@
         <v>1</v>
       </c>
       <c r="B51" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C51" t="n">
         <v>12</v>
       </c>
       <c r="D51" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C52" t="n">
         <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C53" t="n">
         <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
         <v>12</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
         <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C57" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C62" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C63" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B65" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C65" t="n">
         <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C66" t="n">
         <v>12</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B67" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C67" t="n">
         <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C68" t="n">
         <v>12</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C69" t="n">
         <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C70" t="n">
         <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C71" t="n">
         <v>12</v>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C72" t="n">
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C73" t="n">
         <v>12</v>
       </c>
       <c r="D73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B75" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C76" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B78" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C79" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C80" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C83" t="n">
         <v>12</v>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C84" t="n">
         <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C85" t="n">
         <v>12</v>
       </c>
       <c r="D85" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C86" t="n">
         <v>12</v>
       </c>
       <c r="D86" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C87" t="n">
         <v>12</v>
       </c>
       <c r="D87" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
         <v>12</v>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C89" t="n">
         <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C90" t="n">
         <v>12</v>
       </c>
       <c r="D90" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C91" t="n">
         <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="E99" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B101" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B103" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B104" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>12</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>12</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>12</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>12</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>12</v>
+      </c>
+      <c r="D110" t="n">
+        <v>20</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>12</v>
+      </c>
+      <c r="D111" t="n">
+        <v>20</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>12</v>
+      </c>
+      <c r="D112" t="n">
+        <v>20</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>12</v>
+      </c>
+      <c r="D113" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>12</v>
+      </c>
+      <c r="D114" t="n">
+        <v>100</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>12</v>
+      </c>
+      <c r="D115" t="n">
+        <v>100</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>3</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>20</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>20</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>100</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>3</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>100</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>3</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>100</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>3</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>3</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>3</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>3</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>3</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>3</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>3</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12</v>
+      </c>
+      <c r="D134" t="n">
+        <v>20</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>3</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12</v>
+      </c>
+      <c r="D135" t="n">
+        <v>20</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12</v>
+      </c>
+      <c r="D136" t="n">
+        <v>20</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>3</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12</v>
+      </c>
+      <c r="D137" t="n">
+        <v>100</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12</v>
+      </c>
+      <c r="D138" t="n">
+        <v>100</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>3</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12</v>
+      </c>
+      <c r="D139" t="n">
+        <v>100</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>3</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>3</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>3</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>3</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>3</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>3</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>3</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>20</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>3</v>
+      </c>
+      <c r="B147" t="n">
+        <v>8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>20</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>3</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>20</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>3</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>100</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>3</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>100</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>3</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>100</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>3</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>12</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>3</v>
+      </c>
+      <c r="B153" t="n">
+        <v>8</v>
+      </c>
+      <c r="C153" t="n">
+        <v>12</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>3</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>3</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>3</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>3</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>3</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12</v>
+      </c>
+      <c r="D158" t="n">
+        <v>20</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>3</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>12</v>
+      </c>
+      <c r="D159" t="n">
+        <v>20</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>3</v>
+      </c>
+      <c r="B160" t="n">
+        <v>8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12</v>
+      </c>
+      <c r="D160" t="n">
+        <v>20</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>3</v>
+      </c>
+      <c r="B161" t="n">
+        <v>8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12</v>
+      </c>
+      <c r="D161" t="n">
+        <v>100</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>3</v>
+      </c>
+      <c r="B162" t="n">
+        <v>8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>100</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>3</v>
+      </c>
+      <c r="B163" t="n">
+        <v>8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12</v>
+      </c>
+      <c r="D163" t="n">
+        <v>100</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>4</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>10</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>4</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>10</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>4</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>50</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>4</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>50</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>4</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>200</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>4</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>200</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>4</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12</v>
+      </c>
+      <c r="D170" t="n">
+        <v>10</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>4</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12</v>
+      </c>
+      <c r="D171" t="n">
+        <v>10</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>4</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12</v>
+      </c>
+      <c r="D172" t="n">
+        <v>50</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12</v>
+      </c>
+      <c r="D173" t="n">
+        <v>50</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12</v>
+      </c>
+      <c r="D174" t="n">
+        <v>200</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>4</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12</v>
+      </c>
+      <c r="D175" t="n">
+        <v>200</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>4</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>10</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>4</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>10</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>4</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>50</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>4</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>50</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>4</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>200</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>4</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>200</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>4</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12</v>
+      </c>
+      <c r="D182" t="n">
+        <v>10</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>4</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12</v>
+      </c>
+      <c r="D183" t="n">
+        <v>10</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>4</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12</v>
+      </c>
+      <c r="D184" t="n">
+        <v>50</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>4</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12</v>
+      </c>
+      <c r="D185" t="n">
+        <v>50</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>4</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12</v>
+      </c>
+      <c r="D186" t="n">
+        <v>200</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>4</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12</v>
+      </c>
+      <c r="D187" t="n">
+        <v>200</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>4</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>10</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>4</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>10</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>4</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>50</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>4</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>50</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>4</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>200</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>200</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>4</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8</v>
+      </c>
+      <c r="C194" t="n">
+        <v>12</v>
+      </c>
+      <c r="D194" t="n">
+        <v>10</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>4</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8</v>
+      </c>
+      <c r="C195" t="n">
+        <v>12</v>
+      </c>
+      <c r="D195" t="n">
+        <v>10</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>4</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8</v>
+      </c>
+      <c r="C196" t="n">
+        <v>12</v>
+      </c>
+      <c r="D196" t="n">
+        <v>50</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>4</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8</v>
+      </c>
+      <c r="C197" t="n">
+        <v>12</v>
+      </c>
+      <c r="D197" t="n">
+        <v>50</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>4</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8</v>
+      </c>
+      <c r="C198" t="n">
+        <v>12</v>
+      </c>
+      <c r="D198" t="n">
+        <v>200</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>4</v>
+      </c>
+      <c r="B199" t="n">
+        <v>8</v>
+      </c>
+      <c r="C199" t="n">
+        <v>12</v>
+      </c>
+      <c r="D199" t="n">
+        <v>200</v>
+      </c>
+      <c r="E199" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/Stability/wind_tunnel_test/wind_tunnel_test_matrix.xlsx
+++ b/Stability/wind_tunnel_test/wind_tunnel_test_matrix.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -486,13 +486,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -510,13 +510,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -534,13 +534,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -558,13 +558,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -582,13 +582,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -606,13 +606,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -630,13 +630,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -654,13 +654,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -678,13 +678,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -702,13 +702,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -726,179 +726,211 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="B14" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
-      </c>
-      <c r="E18" t="n">
-        <v>20</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
-      </c>
-      <c r="E19" t="n">
-        <v>50</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="n">
-        <v>50</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1</v>
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D21" t="n">
         <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
         <v>0.1</v>
@@ -906,19 +938,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D22" t="n">
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
         <v>0.1</v>
@@ -932,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D23" t="n">
         <v>12</v>
@@ -946,133 +978,133 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D24" t="n">
         <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D25" t="n">
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D26" t="n">
         <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D27" t="n">
         <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D28" t="n">
         <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D29" t="n">
         <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D30" t="n">
         <v>12</v>
@@ -1081,64 +1113,64 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D31" t="n">
         <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D32" t="n">
         <v>12</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D33" t="n">
         <v>12</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
         <v>0.5</v>
@@ -1146,13 +1178,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D34" t="n">
         <v>12</v>
@@ -1166,19 +1198,19 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D35" t="n">
         <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F35" t="n">
         <v>0.5</v>
@@ -1186,53 +1218,53 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D36" t="n">
         <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D37" t="n">
         <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D38" t="n">
         <v>12</v>
@@ -1241,298 +1273,298 @@
         <v>200</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D39" t="n">
         <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D40" t="n">
         <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D41" t="n">
         <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D42" t="n">
         <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D43" t="n">
         <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="B44" t="n">
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D44" t="n">
         <v>12</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D45" t="n">
         <v>12</v>
       </c>
       <c r="E45" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D46" t="n">
         <v>12</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="B47" t="n">
         <v>4</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D47" t="n">
         <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B48" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D48" t="n">
         <v>12</v>
       </c>
       <c r="E48" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D49" t="n">
         <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D50" t="n">
         <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="B51" t="n">
         <v>4</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D51" t="n">
         <v>12</v>
       </c>
       <c r="E51" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D52" t="n">
         <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D53" t="n">
         <v>12</v>
@@ -1541,78 +1573,78 @@
         <v>200</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D54" t="n">
         <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B55" t="n">
         <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D55" t="n">
         <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D56" t="n">
         <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D57" t="n">
         <v>12</v>
@@ -1621,18 +1653,18 @@
         <v>10</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D58" t="n">
         <v>12</v>
@@ -1641,58 +1673,58 @@
         <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D59" t="n">
         <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D60" t="n">
         <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D61" t="n">
         <v>12</v>
@@ -1701,18 +1733,18 @@
         <v>50</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D62" t="n">
         <v>12</v>
@@ -1721,58 +1753,58 @@
         <v>50</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D63" t="n">
         <v>12</v>
       </c>
       <c r="E63" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D64" t="n">
         <v>12</v>
       </c>
       <c r="E64" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D65" t="n">
         <v>12</v>
@@ -1781,138 +1813,138 @@
         <v>200</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="B66" t="n">
         <v>4</v>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D66" t="n">
         <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="B67" t="n">
         <v>4</v>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D67" t="n">
         <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="B68" t="n">
         <v>4</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D68" t="n">
         <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D69" t="n">
         <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D70" t="n">
         <v>12</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D71" t="n">
         <v>12</v>
       </c>
       <c r="E71" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D72" t="n">
         <v>12</v>
@@ -1921,18 +1953,18 @@
         <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D73" t="n">
         <v>12</v>
@@ -1941,58 +1973,58 @@
         <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D74" t="n">
         <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D75" t="n">
         <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D76" t="n">
         <v>12</v>
@@ -2001,18 +2033,18 @@
         <v>50</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D77" t="n">
         <v>12</v>
@@ -2021,58 +2053,58 @@
         <v>50</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D78" t="n">
         <v>12</v>
       </c>
       <c r="E78" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D79" t="n">
         <v>12</v>
       </c>
       <c r="E79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D80" t="n">
         <v>12</v>
@@ -2081,298 +2113,298 @@
         <v>200</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>12</v>
       </c>
       <c r="E81" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>12</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
         <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
         <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>12</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B86" t="n">
         <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>12</v>
       </c>
       <c r="E86" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>12</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n">
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
         <v>12</v>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B90" t="n">
         <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>12</v>
       </c>
       <c r="E90" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>12</v>
       </c>
       <c r="E92" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="B93" t="n">
         <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>12</v>
       </c>
       <c r="E93" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>12</v>
@@ -2381,78 +2413,78 @@
         <v>200</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="B97" t="n">
         <v>3</v>
       </c>
       <c r="C97" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>12</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
         <v>12</v>
@@ -2461,18 +2493,18 @@
         <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
         <v>12</v>
@@ -2481,58 +2513,58 @@
         <v>10</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>12</v>
       </c>
       <c r="E101" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>12</v>
       </c>
       <c r="E102" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C103" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
         <v>12</v>
@@ -2541,18 +2573,18 @@
         <v>50</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C104" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
         <v>12</v>
@@ -2561,58 +2593,58 @@
         <v>50</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
         <v>12</v>
       </c>
       <c r="E105" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
         <v>12</v>
       </c>
       <c r="E106" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
         <v>12</v>
@@ -2621,138 +2653,138 @@
         <v>200</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="B108" t="n">
         <v>4</v>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
         <v>12</v>
       </c>
       <c r="E108" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="B109" t="n">
         <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
         <v>12</v>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="B110" t="n">
         <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
         <v>12</v>
       </c>
       <c r="E110" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
         <v>12</v>
       </c>
       <c r="E111" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B112" t="n">
         <v>3</v>
       </c>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
         <v>12</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
         <v>12</v>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
         <v>12</v>
@@ -2761,18 +2793,18 @@
         <v>10</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="B115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>12</v>
@@ -2781,58 +2813,58 @@
         <v>10</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>12</v>
       </c>
       <c r="E116" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
         <v>12</v>
       </c>
       <c r="E117" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
         <v>12</v>
@@ -2841,18 +2873,18 @@
         <v>50</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C119" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
         <v>12</v>
@@ -2861,58 +2893,58 @@
         <v>50</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
         <v>12</v>
       </c>
       <c r="E120" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>12</v>
       </c>
       <c r="E121" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C122" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>12</v>
@@ -2921,298 +2953,298 @@
         <v>200</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D123" t="n">
         <v>12</v>
       </c>
       <c r="E123" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D124" t="n">
         <v>12</v>
       </c>
       <c r="E124" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="B125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
         <v>12</v>
       </c>
       <c r="E125" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D126" t="n">
         <v>12</v>
       </c>
       <c r="E126" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C127" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D127" t="n">
         <v>12</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="B128" t="n">
         <v>3</v>
       </c>
       <c r="C128" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
         <v>12</v>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
         <v>12</v>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B130" t="n">
         <v>3</v>
       </c>
       <c r="C130" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
         <v>12</v>
       </c>
       <c r="E130" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="B131" t="n">
         <v>4</v>
       </c>
       <c r="C131" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D131" t="n">
         <v>12</v>
       </c>
       <c r="E131" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12</v>
+      </c>
+      <c r="E132" t="n">
         <v>100</v>
       </c>
-      <c r="B132" t="n">
-        <v>3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12</v>
-      </c>
-      <c r="E132" t="n">
-        <v>20</v>
-      </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B133" t="n">
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D133" t="n">
         <v>12</v>
       </c>
       <c r="E133" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C134" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
         <v>12</v>
       </c>
       <c r="E134" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="B135" t="n">
         <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
         <v>12</v>
       </c>
       <c r="E135" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C136" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D136" t="n">
         <v>12</v>
       </c>
       <c r="E136" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C137" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D137" t="n">
         <v>12</v>
@@ -3221,98 +3253,98 @@
         <v>200</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D138" t="n">
         <v>12</v>
       </c>
       <c r="E138" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
         <v>12</v>
       </c>
       <c r="E139" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
         <v>12</v>
       </c>
       <c r="E140" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D141" t="n">
         <v>12</v>
       </c>
       <c r="E141" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C142" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D142" t="n">
         <v>12</v>
@@ -3326,19 +3358,19 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="B143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
         <v>12</v>
       </c>
       <c r="E143" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F143" t="n">
         <v>0.5</v>
@@ -3346,19 +3378,19 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
         <v>12</v>
       </c>
       <c r="E144" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F144" t="n">
         <v>0.5</v>
@@ -3366,33 +3398,33 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
         <v>12</v>
       </c>
       <c r="E145" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C146" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
         <v>12</v>
@@ -3401,164 +3433,164 @@
         <v>50</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
         <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
         <v>12</v>
       </c>
       <c r="E148" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C149" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
         <v>12</v>
       </c>
       <c r="E149" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
         <v>12</v>
       </c>
       <c r="E150" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C151" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D151" t="n">
         <v>12</v>
       </c>
       <c r="E151" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C152" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D152" t="n">
         <v>12</v>
       </c>
       <c r="E152" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F152" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
         <v>12</v>
       </c>
       <c r="E153" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C154" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
         <v>12</v>
       </c>
       <c r="E154" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -3566,19 +3598,19 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B155" t="n">
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D155" t="n">
         <v>12</v>
       </c>
       <c r="E155" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -3586,21 +3618,2221 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12</v>
+      </c>
+      <c r="E156" t="n">
+        <v>10</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12</v>
+      </c>
+      <c r="E157" t="n">
+        <v>10</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12</v>
+      </c>
+      <c r="E158" t="n">
+        <v>20</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12</v>
+      </c>
+      <c r="E159" t="n">
+        <v>50</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12</v>
+      </c>
+      <c r="E160" t="n">
+        <v>50</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12</v>
+      </c>
+      <c r="E161" t="n">
+        <v>50</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12</v>
+      </c>
+      <c r="E162" t="n">
+        <v>100</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B156" t="n">
-        <v>1</v>
-      </c>
-      <c r="C156" t="n">
-        <v>12</v>
-      </c>
-      <c r="D156" t="n">
-        <v>12</v>
-      </c>
-      <c r="E156" t="n">
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12</v>
+      </c>
+      <c r="E163" t="n">
         <v>200</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12</v>
+      </c>
+      <c r="E164" t="n">
+        <v>200</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12</v>
+      </c>
+      <c r="E167" t="n">
+        <v>10</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12</v>
+      </c>
+      <c r="E168" t="n">
+        <v>10</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12</v>
+      </c>
+      <c r="E169" t="n">
+        <v>10</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12</v>
+      </c>
+      <c r="E170" t="n">
+        <v>20</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12</v>
+      </c>
+      <c r="E171" t="n">
+        <v>50</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12</v>
+      </c>
+      <c r="E172" t="n">
+        <v>50</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12</v>
+      </c>
+      <c r="E173" t="n">
+        <v>50</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12</v>
+      </c>
+      <c r="E174" t="n">
+        <v>100</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12</v>
+      </c>
+      <c r="E175" t="n">
+        <v>200</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>12</v>
+      </c>
+      <c r="E176" t="n">
+        <v>200</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12</v>
+      </c>
+      <c r="E177" t="n">
+        <v>10</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12</v>
+      </c>
+      <c r="E178" t="n">
+        <v>50</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12</v>
+      </c>
+      <c r="E179" t="n">
+        <v>200</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12</v>
+      </c>
+      <c r="E182" t="n">
+        <v>10</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12</v>
+      </c>
+      <c r="E183" t="n">
+        <v>10</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>12</v>
+      </c>
+      <c r="E184" t="n">
+        <v>10</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>12</v>
+      </c>
+      <c r="E185" t="n">
+        <v>20</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12</v>
+      </c>
+      <c r="E186" t="n">
+        <v>50</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12</v>
+      </c>
+      <c r="E187" t="n">
+        <v>50</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>12</v>
+      </c>
+      <c r="E188" t="n">
+        <v>50</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>12</v>
+      </c>
+      <c r="E189" t="n">
+        <v>100</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>12</v>
+      </c>
+      <c r="E190" t="n">
+        <v>200</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>12</v>
+      </c>
+      <c r="E191" t="n">
+        <v>200</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>12</v>
+      </c>
+      <c r="E192" t="n">
+        <v>10</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>12</v>
+      </c>
+      <c r="E193" t="n">
+        <v>50</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>12</v>
+      </c>
+      <c r="E194" t="n">
+        <v>200</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>12</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>12</v>
+      </c>
+      <c r="E196" t="n">
+        <v>5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12</v>
+      </c>
+      <c r="E197" t="n">
+        <v>10</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>12</v>
+      </c>
+      <c r="E198" t="n">
+        <v>10</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>12</v>
+      </c>
+      <c r="E199" t="n">
+        <v>10</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>12</v>
+      </c>
+      <c r="E200" t="n">
+        <v>20</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5</v>
+      </c>
+      <c r="D201" t="n">
+        <v>12</v>
+      </c>
+      <c r="E201" t="n">
+        <v>50</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>12</v>
+      </c>
+      <c r="E202" t="n">
+        <v>50</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>12</v>
+      </c>
+      <c r="E203" t="n">
+        <v>50</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>12</v>
+      </c>
+      <c r="E204" t="n">
+        <v>100</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5</v>
+      </c>
+      <c r="D205" t="n">
+        <v>12</v>
+      </c>
+      <c r="E205" t="n">
+        <v>200</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5</v>
+      </c>
+      <c r="D206" t="n">
+        <v>12</v>
+      </c>
+      <c r="E206" t="n">
+        <v>200</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8</v>
+      </c>
+      <c r="D207" t="n">
+        <v>12</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+      <c r="C208" t="n">
+        <v>8</v>
+      </c>
+      <c r="D208" t="n">
+        <v>12</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="n">
+        <v>8</v>
+      </c>
+      <c r="D209" t="n">
+        <v>12</v>
+      </c>
+      <c r="E209" t="n">
+        <v>10</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+      <c r="C210" t="n">
+        <v>8</v>
+      </c>
+      <c r="D210" t="n">
+        <v>12</v>
+      </c>
+      <c r="E210" t="n">
+        <v>10</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4</v>
+      </c>
+      <c r="C211" t="n">
+        <v>8</v>
+      </c>
+      <c r="D211" t="n">
+        <v>12</v>
+      </c>
+      <c r="E211" t="n">
+        <v>10</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8</v>
+      </c>
+      <c r="D212" t="n">
+        <v>12</v>
+      </c>
+      <c r="E212" t="n">
+        <v>20</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>8</v>
+      </c>
+      <c r="D213" t="n">
+        <v>12</v>
+      </c>
+      <c r="E213" t="n">
+        <v>50</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B214" t="n">
+        <v>3</v>
+      </c>
+      <c r="C214" t="n">
+        <v>8</v>
+      </c>
+      <c r="D214" t="n">
+        <v>12</v>
+      </c>
+      <c r="E214" t="n">
+        <v>50</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4</v>
+      </c>
+      <c r="C215" t="n">
+        <v>8</v>
+      </c>
+      <c r="D215" t="n">
+        <v>12</v>
+      </c>
+      <c r="E215" t="n">
+        <v>50</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3</v>
+      </c>
+      <c r="C216" t="n">
+        <v>8</v>
+      </c>
+      <c r="D216" t="n">
+        <v>12</v>
+      </c>
+      <c r="E216" t="n">
+        <v>100</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>8</v>
+      </c>
+      <c r="D217" t="n">
+        <v>12</v>
+      </c>
+      <c r="E217" t="n">
+        <v>200</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4</v>
+      </c>
+      <c r="C218" t="n">
+        <v>8</v>
+      </c>
+      <c r="D218" t="n">
+        <v>12</v>
+      </c>
+      <c r="E218" t="n">
+        <v>200</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4</v>
+      </c>
+      <c r="C219" t="n">
+        <v>8</v>
+      </c>
+      <c r="D219" t="n">
+        <v>12</v>
+      </c>
+      <c r="E219" t="n">
+        <v>10</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4</v>
+      </c>
+      <c r="C220" t="n">
+        <v>8</v>
+      </c>
+      <c r="D220" t="n">
+        <v>12</v>
+      </c>
+      <c r="E220" t="n">
+        <v>50</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4</v>
+      </c>
+      <c r="C221" t="n">
+        <v>8</v>
+      </c>
+      <c r="D221" t="n">
+        <v>12</v>
+      </c>
+      <c r="E221" t="n">
+        <v>200</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B222" t="n">
+        <v>3</v>
+      </c>
+      <c r="C222" t="n">
+        <v>8</v>
+      </c>
+      <c r="D222" t="n">
+        <v>12</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B223" t="n">
+        <v>3</v>
+      </c>
+      <c r="C223" t="n">
+        <v>8</v>
+      </c>
+      <c r="D223" t="n">
+        <v>12</v>
+      </c>
+      <c r="E223" t="n">
+        <v>5</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>8</v>
+      </c>
+      <c r="D224" t="n">
+        <v>12</v>
+      </c>
+      <c r="E224" t="n">
+        <v>10</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3</v>
+      </c>
+      <c r="C225" t="n">
+        <v>8</v>
+      </c>
+      <c r="D225" t="n">
+        <v>12</v>
+      </c>
+      <c r="E225" t="n">
+        <v>10</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4</v>
+      </c>
+      <c r="C226" t="n">
+        <v>8</v>
+      </c>
+      <c r="D226" t="n">
+        <v>12</v>
+      </c>
+      <c r="E226" t="n">
+        <v>10</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3</v>
+      </c>
+      <c r="C227" t="n">
+        <v>8</v>
+      </c>
+      <c r="D227" t="n">
+        <v>12</v>
+      </c>
+      <c r="E227" t="n">
+        <v>20</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>8</v>
+      </c>
+      <c r="D228" t="n">
+        <v>12</v>
+      </c>
+      <c r="E228" t="n">
+        <v>50</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B229" t="n">
+        <v>3</v>
+      </c>
+      <c r="C229" t="n">
+        <v>8</v>
+      </c>
+      <c r="D229" t="n">
+        <v>12</v>
+      </c>
+      <c r="E229" t="n">
+        <v>50</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4</v>
+      </c>
+      <c r="C230" t="n">
+        <v>8</v>
+      </c>
+      <c r="D230" t="n">
+        <v>12</v>
+      </c>
+      <c r="E230" t="n">
+        <v>50</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3</v>
+      </c>
+      <c r="C231" t="n">
+        <v>8</v>
+      </c>
+      <c r="D231" t="n">
+        <v>12</v>
+      </c>
+      <c r="E231" t="n">
+        <v>100</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>8</v>
+      </c>
+      <c r="D232" t="n">
+        <v>12</v>
+      </c>
+      <c r="E232" t="n">
+        <v>200</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4</v>
+      </c>
+      <c r="C233" t="n">
+        <v>8</v>
+      </c>
+      <c r="D233" t="n">
+        <v>12</v>
+      </c>
+      <c r="E233" t="n">
+        <v>200</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4</v>
+      </c>
+      <c r="C234" t="n">
+        <v>8</v>
+      </c>
+      <c r="D234" t="n">
+        <v>12</v>
+      </c>
+      <c r="E234" t="n">
+        <v>10</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4</v>
+      </c>
+      <c r="C235" t="n">
+        <v>8</v>
+      </c>
+      <c r="D235" t="n">
+        <v>12</v>
+      </c>
+      <c r="E235" t="n">
+        <v>50</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4</v>
+      </c>
+      <c r="C236" t="n">
+        <v>8</v>
+      </c>
+      <c r="D236" t="n">
+        <v>12</v>
+      </c>
+      <c r="E236" t="n">
+        <v>200</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3</v>
+      </c>
+      <c r="C237" t="n">
+        <v>8</v>
+      </c>
+      <c r="D237" t="n">
+        <v>12</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3</v>
+      </c>
+      <c r="C238" t="n">
+        <v>8</v>
+      </c>
+      <c r="D238" t="n">
+        <v>12</v>
+      </c>
+      <c r="E238" t="n">
+        <v>5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>8</v>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="n">
+        <v>10</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3</v>
+      </c>
+      <c r="C240" t="n">
+        <v>8</v>
+      </c>
+      <c r="D240" t="n">
+        <v>12</v>
+      </c>
+      <c r="E240" t="n">
+        <v>10</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4</v>
+      </c>
+      <c r="C241" t="n">
+        <v>8</v>
+      </c>
+      <c r="D241" t="n">
+        <v>12</v>
+      </c>
+      <c r="E241" t="n">
+        <v>10</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3</v>
+      </c>
+      <c r="C242" t="n">
+        <v>8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>12</v>
+      </c>
+      <c r="E242" t="n">
+        <v>20</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>8</v>
+      </c>
+      <c r="D243" t="n">
+        <v>12</v>
+      </c>
+      <c r="E243" t="n">
+        <v>50</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3</v>
+      </c>
+      <c r="C244" t="n">
+        <v>8</v>
+      </c>
+      <c r="D244" t="n">
+        <v>12</v>
+      </c>
+      <c r="E244" t="n">
+        <v>50</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4</v>
+      </c>
+      <c r="C245" t="n">
+        <v>8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>12</v>
+      </c>
+      <c r="E245" t="n">
+        <v>50</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3</v>
+      </c>
+      <c r="C246" t="n">
+        <v>8</v>
+      </c>
+      <c r="D246" t="n">
+        <v>12</v>
+      </c>
+      <c r="E246" t="n">
+        <v>100</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>8</v>
+      </c>
+      <c r="D247" t="n">
+        <v>12</v>
+      </c>
+      <c r="E247" t="n">
+        <v>200</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4</v>
+      </c>
+      <c r="C248" t="n">
+        <v>8</v>
+      </c>
+      <c r="D248" t="n">
+        <v>12</v>
+      </c>
+      <c r="E248" t="n">
+        <v>200</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>10</v>
+      </c>
+      <c r="D249" t="n">
+        <v>12</v>
+      </c>
+      <c r="E249" t="n">
+        <v>10</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="n">
+        <v>10</v>
+      </c>
+      <c r="D250" t="n">
+        <v>12</v>
+      </c>
+      <c r="E250" t="n">
+        <v>50</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>10</v>
+      </c>
+      <c r="D251" t="n">
+        <v>12</v>
+      </c>
+      <c r="E251" t="n">
+        <v>200</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>10</v>
+      </c>
+      <c r="D252" t="n">
+        <v>12</v>
+      </c>
+      <c r="E252" t="n">
+        <v>10</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>10</v>
+      </c>
+      <c r="D253" t="n">
+        <v>12</v>
+      </c>
+      <c r="E253" t="n">
+        <v>50</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>10</v>
+      </c>
+      <c r="D254" t="n">
+        <v>12</v>
+      </c>
+      <c r="E254" t="n">
+        <v>200</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>10</v>
+      </c>
+      <c r="D255" t="n">
+        <v>12</v>
+      </c>
+      <c r="E255" t="n">
+        <v>10</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>10</v>
+      </c>
+      <c r="D256" t="n">
+        <v>12</v>
+      </c>
+      <c r="E256" t="n">
+        <v>50</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>10</v>
+      </c>
+      <c r="D257" t="n">
+        <v>12</v>
+      </c>
+      <c r="E257" t="n">
+        <v>200</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>12</v>
+      </c>
+      <c r="D258" t="n">
+        <v>12</v>
+      </c>
+      <c r="E258" t="n">
+        <v>10</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>12</v>
+      </c>
+      <c r="D259" t="n">
+        <v>12</v>
+      </c>
+      <c r="E259" t="n">
+        <v>50</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>12</v>
+      </c>
+      <c r="D260" t="n">
+        <v>12</v>
+      </c>
+      <c r="E260" t="n">
+        <v>200</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="n">
+        <v>12</v>
+      </c>
+      <c r="D261" t="n">
+        <v>12</v>
+      </c>
+      <c r="E261" t="n">
+        <v>10</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>12</v>
+      </c>
+      <c r="D262" t="n">
+        <v>12</v>
+      </c>
+      <c r="E262" t="n">
+        <v>50</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" t="n">
+        <v>12</v>
+      </c>
+      <c r="D263" t="n">
+        <v>12</v>
+      </c>
+      <c r="E263" t="n">
+        <v>200</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="n">
+        <v>12</v>
+      </c>
+      <c r="D264" t="n">
+        <v>12</v>
+      </c>
+      <c r="E264" t="n">
+        <v>10</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>12</v>
+      </c>
+      <c r="D265" t="n">
+        <v>12</v>
+      </c>
+      <c r="E265" t="n">
+        <v>50</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>12</v>
+      </c>
+      <c r="D266" t="n">
+        <v>12</v>
+      </c>
+      <c r="E266" t="n">
+        <v>200</v>
+      </c>
+      <c r="F266" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Stability/wind_tunnel_test/wind_tunnel_test_matrix.xlsx
+++ b/Stability/wind_tunnel_test/wind_tunnel_test_matrix.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
